--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -13,49 +13,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
+    <t>作業日</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>工事番号</t>
+  </si>
+  <si>
+    <t>実績工数</t>
+  </si>
+  <si>
     <t>所属</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>年月日</t>
-  </si>
-  <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>得点</t>
+    <t>2024/04/01</t>
+  </si>
+  <si>
+    <t>くろ</t>
+  </si>
+  <si>
+    <t>国語</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>くろ</t>
-  </si>
-  <si>
-    <t>2024/04/01</t>
-  </si>
-  <si>
-    <t>国語</t>
+    <t>しろ</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>しろ</t>
+    <t>あか</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>あか</t>
+    <t>ぽち</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>ぽち</t>
   </si>
   <si>
     <t>2024/04/02</t>
@@ -257,7 +257,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -267,28 +267,34 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -311,8 +317,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1353,9 +1359,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="5.8125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2109" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.8125" style="1" customWidth="1"/>
+    <col min="1" max="5" width="5.8125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1386,198 +1390,198 @@
       <c r="C2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="6">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s" s="7">
         <v>8</v>
-      </c>
-      <c r="E2" s="6">
-        <v>70</v>
       </c>
     </row>
     <row r="3" ht="18.3" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="C3" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s" s="12">
         <v>10</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
-        <v>80</v>
       </c>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="C4" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s" s="12">
         <v>12</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
-        <v>90</v>
       </c>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="C5" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="12">
         <v>14</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
-        <v>20</v>
       </c>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="C6" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="12">
         <v>14</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
-        <v>30</v>
       </c>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="C7" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s" s="12">
         <v>14</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10">
-        <v>40</v>
       </c>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="8">
+      <c r="A8" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="11">
         <v>25</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="8">
+      <c r="A9" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="C9" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11">
         <v>10</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="8">
+      <c r="A10" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C10" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="C10" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
         <v>20</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s" s="8">
+      <c r="A11" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="C11" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11">
         <v>30</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s" s="8">
+      <c r="A12" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="C12" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11">
         <v>45</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s" s="8">
+      <c r="A13" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="C13" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11">
         <v>55</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
